--- a/data/trans_orig/P36B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CBD1AA-C7B2-4D71-A9A7-3DA3B236EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06917CE-8BE9-488E-8471-CF5CDB5359C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C010E978-847B-48E6-B00A-DF77BD63710A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B19A3CD7-8467-48E6-8CE1-035B55589A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="839">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,2470 +76,2485 @@
     <t>4,33%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>31,06%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>29,77%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>54,26%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8A8656-8887-4A9E-AFFD-CD41E770CC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A3282A-0C6D-47C3-8E68-5B0036D7B233}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3697,7 +3712,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3706,13 +3721,13 @@
         <v>17065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3721,13 +3736,13 @@
         <v>28829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3775,10 @@
         <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3772,13 +3787,13 @@
         <v>46442</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3808,13 @@
         <v>102769</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -3808,13 +3823,13 @@
         <v>88350</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -3823,13 +3838,13 @@
         <v>191119</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3859,13 @@
         <v>207522</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -3859,13 +3874,13 @@
         <v>186576</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -3874,13 +3889,13 @@
         <v>394099</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3910,13 @@
         <v>286074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -3910,13 +3925,13 @@
         <v>380967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -3925,13 +3940,13 @@
         <v>667041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4002,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3999,13 +4014,13 @@
         <v>7182</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4014,13 +4029,13 @@
         <v>3150</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4029,13 +4044,13 @@
         <v>10332</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4065,13 @@
         <v>25144</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -4065,13 +4080,13 @@
         <v>16188</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -4080,13 +4095,13 @@
         <v>41331</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4116,13 @@
         <v>77185</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -4116,13 +4131,13 @@
         <v>55242</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -4131,13 +4146,13 @@
         <v>132427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4167,13 @@
         <v>147130</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>127</v>
@@ -4167,13 +4182,13 @@
         <v>131068</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -4388,13 +4403,13 @@
         <v>24245</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4424,13 @@
         <v>52085</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>43</v>
@@ -4424,13 +4439,13 @@
         <v>43519</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>95</v>
@@ -4439,13 +4454,13 @@
         <v>95603</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4475,13 @@
         <v>101357</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>103</v>
@@ -4475,13 +4490,13 @@
         <v>105786</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>206</v>
@@ -4490,13 +4505,13 @@
         <v>207143</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4526,13 @@
         <v>213225</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>241</v>
@@ -4526,13 +4541,13 @@
         <v>244930</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>456</v>
@@ -4541,13 +4556,13 @@
         <v>458155</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4618,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4615,13 +4630,13 @@
         <v>5588</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4630,13 +4645,13 @@
         <v>3437</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -4645,13 +4660,13 @@
         <v>9026</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4681,13 @@
         <v>10842</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -4681,13 +4696,13 @@
         <v>8214</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -4696,13 +4711,13 @@
         <v>19056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4732,13 @@
         <v>60796</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>66</v>
@@ -4732,13 +4747,13 @@
         <v>69438</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -4747,13 +4762,13 @@
         <v>130234</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4783,13 @@
         <v>97792</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>123</v>
@@ -4783,13 +4798,13 @@
         <v>124194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>226</v>
@@ -4798,13 +4813,13 @@
         <v>221986</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4834,13 @@
         <v>327449</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>461</v>
@@ -4834,13 +4849,13 @@
         <v>471559</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>801</v>
@@ -4849,13 +4864,13 @@
         <v>799007</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4938,13 @@
         <v>74106</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="H40" s="7">
         <v>62</v>
@@ -4938,13 +4953,13 @@
         <v>63049</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>133</v>
@@ -4953,13 +4968,13 @@
         <v>137155</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4989,13 @@
         <v>187038</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>110</v>
@@ -4989,13 +5004,13 @@
         <v>113213</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>294</v>
@@ -5004,13 +5019,13 @@
         <v>300251</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5040,13 @@
         <v>516574</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>440</v>
@@ -5040,13 +5055,13 @@
         <v>444465</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>949</v>
@@ -5055,13 +5070,13 @@
         <v>961039</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5091,13 @@
         <v>944294</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>852</v>
@@ -5091,13 +5106,13 @@
         <v>870825</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>1767</v>
@@ -5109,10 +5124,10 @@
         <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5142,13 @@
         <v>1551659</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>1831</v>
@@ -5142,13 +5157,13 @@
         <v>1885611</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M44" s="7">
         <v>3363</v>
@@ -5157,13 +5172,13 @@
         <v>3437270</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5234,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E2A70-D691-4A72-9C9A-EC5F18C210E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDC6324-BDF7-4B20-A1A1-883785C833E7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5258,7 +5273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5365,13 +5380,13 @@
         <v>14657</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5380,13 +5395,13 @@
         <v>17280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5395,13 +5410,13 @@
         <v>31937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5431,13 @@
         <v>24670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5431,13 +5446,13 @@
         <v>14638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5446,13 +5461,13 @@
         <v>39308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5482,13 @@
         <v>83192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>63</v>
@@ -5482,13 +5497,13 @@
         <v>66443</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>145</v>
@@ -5497,13 +5512,13 @@
         <v>149634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5533,13 @@
         <v>118578</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>119</v>
@@ -5533,13 +5548,13 @@
         <v>120600</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
@@ -5548,13 +5563,13 @@
         <v>239178</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,10 +5584,10 @@
         <v>213050</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>359</v>
@@ -5602,10 +5617,10 @@
         <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5688,13 @@
         <v>25765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5688,13 +5703,13 @@
         <v>14978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5703,13 +5718,13 @@
         <v>40743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5739,13 @@
         <v>29379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5739,13 +5754,13 @@
         <v>32451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -5754,13 +5769,13 @@
         <v>61829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5790,13 @@
         <v>106637</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -5790,13 +5805,13 @@
         <v>44843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5805,13 +5820,13 @@
         <v>151480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5841,13 @@
         <v>182475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -5841,13 +5856,13 @@
         <v>140017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -5856,13 +5871,13 @@
         <v>322492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5892,13 @@
         <v>341872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
@@ -5892,13 +5907,13 @@
         <v>376981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>685</v>
@@ -5907,13 +5922,13 @@
         <v>718854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5996,13 @@
         <v>16938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5996,13 +6011,13 @@
         <v>14708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6011,13 +6026,13 @@
         <v>31646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6047,13 @@
         <v>24067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6047,13 +6062,13 @@
         <v>22193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6062,13 +6077,13 @@
         <v>46259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6098,13 @@
         <v>78625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -6098,10 +6113,10 @@
         <v>54374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>423</v>
@@ -6116,10 +6131,10 @@
         <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,10 +6149,10 @@
         <v>187543</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>428</v>
@@ -6170,7 +6185,7 @@
         <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6200,13 @@
         <v>374689</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>448</v>
@@ -6200,13 +6215,13 @@
         <v>472674</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -6215,13 +6230,13 @@
         <v>847363</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6292,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6289,13 +6304,13 @@
         <v>8241</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6304,13 +6319,13 @@
         <v>9215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -6319,13 +6334,13 @@
         <v>17456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6355,13 @@
         <v>15338</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>449</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -6355,13 +6370,13 @@
         <v>6450</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>253</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -6370,13 +6385,13 @@
         <v>21788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>454</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6406,13 @@
         <v>56770</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -6406,10 +6421,10 @@
         <v>41658</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>461</v>
@@ -6427,7 +6442,7 @@
         <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6457,13 @@
         <v>169638</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -6457,13 +6472,13 @@
         <v>123547</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>257</v>
@@ -6472,13 +6487,13 @@
         <v>293185</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6508,13 @@
         <v>362577</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>383</v>
@@ -6508,13 +6523,13 @@
         <v>434268</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>707</v>
@@ -6523,13 +6538,13 @@
         <v>796845</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,7 +6586,7 @@
         <v>1084</v>
       </c>
       <c r="N27" s="7">
-        <v>1227703</v>
+        <v>1227702</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6597,13 +6612,13 @@
         <v>3963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6612,13 +6627,13 @@
         <v>7113</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6627,13 +6642,13 @@
         <v>11076</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6663,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6663,13 +6678,13 @@
         <v>12808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6678,13 +6693,13 @@
         <v>22247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6714,13 @@
         <v>31176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>295</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -6714,13 +6729,13 @@
         <v>35400</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -6729,13 +6744,13 @@
         <v>66576</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6765,13 @@
         <v>76887</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H31" s="7">
         <v>74</v>
@@ -6765,13 +6780,13 @@
         <v>82223</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -6780,13 +6795,13 @@
         <v>159110</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>377</v>
+        <v>507</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6816,13 @@
         <v>307963</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H32" s="7">
         <v>286</v>
@@ -6816,13 +6831,13 @@
         <v>310256</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M32" s="7">
         <v>568</v>
@@ -6831,13 +6846,13 @@
         <v>618220</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,7 +6908,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6905,13 +6920,13 @@
         <v>5179</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6920,13 +6935,13 @@
         <v>4138</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>450</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -6935,13 +6950,13 @@
         <v>9317</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>524</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6971,13 @@
         <v>5864</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>283</v>
+        <v>524</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -6971,13 +6986,13 @@
         <v>6924</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -6986,13 +7001,13 @@
         <v>12788</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,10 +7022,10 @@
         <v>27537</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>532</v>
@@ -7025,10 +7040,10 @@
         <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -7037,13 +7052,13 @@
         <v>57037</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>535</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>536</v>
+        <v>448</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7073,13 @@
         <v>76219</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -7073,13 +7088,13 @@
         <v>91948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M37" s="7">
         <v>153</v>
@@ -7088,13 +7103,13 @@
         <v>168167</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,28 +7124,28 @@
         <v>442788</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H38" s="7">
         <v>567</v>
       </c>
       <c r="I38" s="7">
-        <v>606353</v>
+        <v>606352</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M38" s="7">
         <v>967</v>
@@ -7139,13 +7154,13 @@
         <v>1049141</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,7 +7187,7 @@
         <v>691</v>
       </c>
       <c r="I39" s="7">
-        <v>738863</v>
+        <v>738862</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7216,10 +7231,10 @@
         <v>207</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>552</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>555</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7">
         <v>61</v>
@@ -7228,13 +7243,13 @@
         <v>67432</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>120</v>
+        <v>554</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="M40" s="7">
         <v>134</v>
@@ -7243,10 +7258,10 @@
         <v>142175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>556</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>205</v>
@@ -7264,13 +7279,13 @@
         <v>108755</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H41" s="7">
         <v>86</v>
@@ -7279,13 +7294,13 @@
         <v>95464</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>75</v>
+        <v>559</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="M41" s="7">
         <v>190</v>
@@ -7294,13 +7309,13 @@
         <v>204219</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7330,13 @@
         <v>383938</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H42" s="7">
         <v>255</v>
@@ -7330,13 +7345,13 @@
         <v>272217</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M42" s="7">
         <v>623</v>
@@ -7345,13 +7360,13 @@
         <v>656155</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7381,13 @@
         <v>811341</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>344</v>
+        <v>574</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H43" s="7">
         <v>646</v>
@@ -7381,28 +7396,28 @@
         <v>704059</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M43" s="7">
         <v>1405</v>
       </c>
       <c r="N43" s="7">
-        <v>1515399</v>
+        <v>1515400</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7432,13 @@
         <v>2042939</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H44" s="7">
         <v>2244</v>
@@ -7432,13 +7447,13 @@
         <v>2411801</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M44" s="7">
         <v>4144</v>
@@ -7447,13 +7462,13 @@
         <v>4454740</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,7 +7510,7 @@
         <v>6496</v>
       </c>
       <c r="N45" s="7">
-        <v>6972688</v>
+        <v>6972689</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -7509,7 +7524,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7531,7 +7546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B301A17-F5D6-4325-8BE2-4A150ADF473C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF2EDDF-6561-494F-8C2D-9E3F175DF300}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7548,7 +7563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7655,13 +7670,13 @@
         <v>22065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>591</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -7670,13 +7685,13 @@
         <v>23077</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>593</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>594</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -7685,13 +7700,13 @@
         <v>45142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>597</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7721,13 @@
         <v>21270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>599</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>563</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -7724,10 +7739,10 @@
         <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -7736,13 +7751,13 @@
         <v>51127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>604</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,10 +7775,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H6" s="7">
         <v>83</v>
@@ -7772,13 +7787,13 @@
         <v>80561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M6" s="7">
         <v>160</v>
@@ -7787,13 +7802,13 @@
         <v>164685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>608</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7823,13 @@
         <v>138678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -7823,13 +7838,13 @@
         <v>125315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -7838,13 +7853,13 @@
         <v>263993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>615</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7874,13 @@
         <v>152338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -7874,13 +7889,13 @@
         <v>135949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -7889,13 +7904,13 @@
         <v>288287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7978,13 @@
         <v>17259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>628</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7978,13 +7993,13 @@
         <v>12576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -7993,13 +8008,13 @@
         <v>29836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8029,13 @@
         <v>37940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -8029,13 +8044,13 @@
         <v>28336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>638</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -8044,13 +8059,13 @@
         <v>66277</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>639</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8080,13 @@
         <v>94634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -8080,13 +8095,13 @@
         <v>98761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -8095,13 +8110,13 @@
         <v>193395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8131,13 @@
         <v>198028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>651</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -8131,13 +8146,13 @@
         <v>183228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M13" s="7">
         <v>383</v>
@@ -8146,13 +8161,13 @@
         <v>381255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>658</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8182,13 @@
         <v>241652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -8182,13 +8197,13 @@
         <v>240643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -8197,13 +8212,13 @@
         <v>482295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8286,13 @@
         <v>14795</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>667</v>
+        <v>482</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -8286,13 +8301,13 @@
         <v>13371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>672</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>673</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -8301,13 +8316,13 @@
         <v>28166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8337,13 @@
         <v>34797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8340,10 +8355,10 @@
         <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -8352,13 +8367,13 @@
         <v>55979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>678</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8388,13 @@
         <v>101074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -8388,13 +8403,13 @@
         <v>68632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M18" s="7">
         <v>161</v>
@@ -8403,13 +8418,13 @@
         <v>169706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>685</v>
+        <v>536</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8439,13 @@
         <v>214743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -8439,13 +8454,13 @@
         <v>204946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>691</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -8454,13 +8469,13 @@
         <v>419688</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,13 +8490,13 @@
         <v>301865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -8490,13 +8505,13 @@
         <v>351626</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -8505,13 +8520,13 @@
         <v>653491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>703</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,7 +8582,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8579,13 +8594,13 @@
         <v>20903</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>703</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8594,13 +8609,13 @@
         <v>12631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>709</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -8609,13 +8624,13 @@
         <v>33534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8645,13 @@
         <v>13557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>709</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>710</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -8648,10 +8663,10 @@
         <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -8660,13 +8675,13 @@
         <v>29301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>714</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>678</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8696,13 @@
         <v>93783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -8696,13 +8711,13 @@
         <v>60370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>718</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M24" s="7">
         <v>138</v>
@@ -8711,13 +8726,13 @@
         <v>154153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>719</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8747,13 @@
         <v>191225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8747,13 +8762,13 @@
         <v>197225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -8762,13 +8777,13 @@
         <v>388450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>730</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8798,13 @@
         <v>326580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="H26" s="7">
         <v>338</v>
@@ -8798,13 +8813,13 @@
         <v>361995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="M26" s="7">
         <v>632</v>
@@ -8813,13 +8828,13 @@
         <v>688574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,13 +8902,13 @@
         <v>6837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -8902,13 +8917,13 @@
         <v>5240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -8917,13 +8932,13 @@
         <v>12077</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>668</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>741</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8953,13 @@
         <v>13141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>745</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8953,13 +8968,13 @@
         <v>7031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>747</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8968,13 +8983,13 @@
         <v>20172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>492</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>62</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,13 +9004,13 @@
         <v>45940</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -9004,13 +9019,13 @@
         <v>46696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="M30" s="7">
         <v>81</v>
@@ -9019,13 +9034,13 @@
         <v>92636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,13 +9055,13 @@
         <v>126087</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>434</v>
+        <v>758</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="H31" s="7">
         <v>108</v>
@@ -9055,13 +9070,13 @@
         <v>124400</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="M31" s="7">
         <v>222</v>
@@ -9070,13 +9085,13 @@
         <v>250486</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,13 +9106,13 @@
         <v>284864</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>146</v>
+        <v>768</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="H32" s="7">
         <v>275</v>
@@ -9106,13 +9121,13 @@
         <v>313482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="M32" s="7">
         <v>525</v>
@@ -9121,13 +9136,13 @@
         <v>598346</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,7 +9198,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9195,13 +9210,13 @@
         <v>4651</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9210,13 +9225,13 @@
         <v>4602</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>252</v>
+        <v>779</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>770</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>771</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -9225,13 +9240,13 @@
         <v>9253</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>780</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>525</v>
+        <v>781</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>772</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,13 +9261,13 @@
         <v>8736</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>155</v>
+        <v>782</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -9261,13 +9276,13 @@
         <v>12925</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -9276,13 +9291,13 @@
         <v>21661</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>520</v>
+        <v>786</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9312,13 @@
         <v>40738</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>779</v>
+        <v>16</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>780</v>
+        <v>164</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H36" s="7">
         <v>40</v>
@@ -9315,10 +9330,10 @@
         <v>77</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>782</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>788</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -9327,13 +9342,13 @@
         <v>87068</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9363,13 @@
         <v>137999</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>787</v>
+        <v>182</v>
       </c>
       <c r="H37" s="7">
         <v>119</v>
@@ -9363,13 +9378,13 @@
         <v>140980</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M37" s="7">
         <v>266</v>
@@ -9378,13 +9393,13 @@
         <v>278979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9414,13 @@
         <v>397247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="H38" s="7">
         <v>479</v>
@@ -9414,13 +9429,13 @@
         <v>571003</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="M38" s="7">
         <v>902</v>
@@ -9429,13 +9444,13 @@
         <v>968250</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>519</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,13 +9518,13 @@
         <v>86511</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>561</v>
+        <v>742</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="H40" s="7">
         <v>70</v>
@@ -9518,13 +9533,13 @@
         <v>71497</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>802</v>
+        <v>210</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>804</v>
+        <v>492</v>
       </c>
       <c r="M40" s="7">
         <v>150</v>
@@ -9533,13 +9548,13 @@
         <v>158009</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9569,13 @@
         <v>129441</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>806</v>
+        <v>374</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>807</v>
+        <v>448</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H41" s="7">
         <v>111</v>
@@ -9569,13 +9584,13 @@
         <v>115076</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>678</v>
+        <v>813</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>594</v>
       </c>
       <c r="M41" s="7">
         <v>232</v>
@@ -9584,13 +9599,13 @@
         <v>244517</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>447</v>
+        <v>815</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9605,13 +9620,13 @@
         <v>460293</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="H42" s="7">
         <v>386</v>
@@ -9620,13 +9635,13 @@
         <v>401349</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>814</v>
+        <v>127</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="M42" s="7">
         <v>812</v>
@@ -9635,13 +9650,13 @@
         <v>861642</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,10 +9674,10 @@
         <v>44</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="H43" s="7">
         <v>936</v>
@@ -9671,13 +9686,13 @@
         <v>976093</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="M43" s="7">
         <v>1906</v>
@@ -9686,13 +9701,13 @@
         <v>1982852</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9722,13 @@
         <v>1704546</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="H44" s="7">
         <v>1830</v>
@@ -9722,13 +9737,13 @@
         <v>1974697</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="M44" s="7">
         <v>3458</v>
@@ -9737,13 +9752,13 @@
         <v>3679244</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9799,7 +9814,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3032363D-3CF0-4D22-B157-B6EEFA8E578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1993F500-7FC5-47FF-90BF-10416C26BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CC09361-9E85-42EA-AF5B-09784EE6B903}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4252D1A3-8C90-4DBD-AAB0-390D75D8C2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="937">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,21%</t>
@@ -355,7 +355,7 @@
     <t>48,06%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -493,7 +493,7 @@
     <t>53,05%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -628,7 +628,7 @@
     <t>58,3%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -763,1768 +763,2038 @@
     <t>61,21%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
   </si>
   <si>
     <t>11,66%</t>
@@ -2990,8 +3260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0593066B-4571-43C6-99D0-263143E78A3E}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1B49D-F175-4385-81F3-E7BA3CB4355F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4218,7 +4488,7 @@
         <v>264</v>
       </c>
       <c r="N25" s="7">
-        <v>278199</v>
+        <v>278198</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>184</v>
@@ -4269,7 +4539,7 @@
         <v>546</v>
       </c>
       <c r="N26" s="7">
-        <v>571526</v>
+        <v>571525</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>193</v>
@@ -4320,7 +4590,7 @@
         <v>985</v>
       </c>
       <c r="N27" s="7">
-        <v>1033814</v>
+        <v>1033813</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4648,10 +4918,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>5588</v>
+        <v>2717</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>242</v>
@@ -4663,34 +4933,34 @@
         <v>244</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>3437</v>
+        <v>976</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3693</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M34" s="7">
-        <v>8</v>
-      </c>
-      <c r="N34" s="7">
-        <v>9026</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +4969,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>10842</v>
+        <v>3694</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4716</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>8410</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="7">
-        <v>8</v>
-      </c>
-      <c r="I35" s="7">
-        <v>8214</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M35" s="7">
-        <v>19</v>
-      </c>
-      <c r="N35" s="7">
-        <v>19056</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +5020,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>60796</v>
+        <v>38209</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="7">
+        <v>33</v>
+      </c>
+      <c r="I36" s="7">
+        <v>31226</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>73</v>
+      </c>
+      <c r="N36" s="7">
+        <v>69434</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="7">
-        <v>66</v>
-      </c>
-      <c r="I36" s="7">
-        <v>69438</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="7">
-        <v>130</v>
-      </c>
-      <c r="N36" s="7">
-        <v>130234</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,49 +5071,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D37" s="7">
-        <v>97792</v>
+        <v>57224</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>74</v>
+      </c>
+      <c r="I37" s="7">
+        <v>68412</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H37" s="7">
-        <v>123</v>
-      </c>
-      <c r="I37" s="7">
-        <v>124194</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>132</v>
+      </c>
+      <c r="N37" s="7">
+        <v>125636</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M37" s="7">
-        <v>226</v>
-      </c>
-      <c r="N37" s="7">
-        <v>221986</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,49 +5122,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>340</v>
+        <v>198</v>
       </c>
       <c r="D38" s="7">
-        <v>327449</v>
+        <v>190740</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>258</v>
+      </c>
+      <c r="I38" s="7">
+        <v>237604</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="7">
-        <v>461</v>
-      </c>
-      <c r="I38" s="7">
-        <v>471559</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>456</v>
+      </c>
+      <c r="N38" s="7">
+        <v>428344</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M38" s="7">
-        <v>801</v>
-      </c>
-      <c r="N38" s="7">
-        <v>799007</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,10 +5173,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D39" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4918,10 +5188,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4933,10 +5203,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N39" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4950,55 +5220,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>74106</v>
+        <v>2872</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2461</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="7">
-        <v>62</v>
-      </c>
-      <c r="I40" s="7">
-        <v>63049</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>4</v>
+      </c>
+      <c r="N40" s="7">
+        <v>5333</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="P40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="M40" s="7">
-        <v>133</v>
-      </c>
-      <c r="N40" s="7">
-        <v>137155</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5277,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7">
-        <v>187038</v>
+        <v>7148</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3</v>
+      </c>
+      <c r="I41" s="7">
+        <v>3498</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="L41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" s="7">
+        <v>10</v>
+      </c>
+      <c r="N41" s="7">
+        <v>10646</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H41" s="7">
-        <v>110</v>
-      </c>
-      <c r="I41" s="7">
-        <v>113213</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M41" s="7">
-        <v>294</v>
-      </c>
-      <c r="N41" s="7">
-        <v>300251</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,49 +5328,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>509</v>
+        <v>24</v>
       </c>
       <c r="D42" s="7">
-        <v>516574</v>
+        <v>22587</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="7">
+        <v>33</v>
+      </c>
+      <c r="I42" s="7">
+        <v>38212</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>57</v>
+      </c>
+      <c r="N42" s="7">
+        <v>60799</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H42" s="7">
-        <v>440</v>
-      </c>
-      <c r="I42" s="7">
-        <v>444465</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M42" s="7">
-        <v>949</v>
-      </c>
-      <c r="N42" s="7">
-        <v>961039</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +5379,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>915</v>
+        <v>45</v>
       </c>
       <c r="D43" s="7">
-        <v>944294</v>
+        <v>40568</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="7">
+        <v>49</v>
+      </c>
+      <c r="I43" s="7">
+        <v>55782</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>94</v>
+      </c>
+      <c r="N43" s="7">
+        <v>96350</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H43" s="7">
-        <v>852</v>
-      </c>
-      <c r="I43" s="7">
-        <v>870825</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M43" s="7">
-        <v>1767</v>
-      </c>
-      <c r="N43" s="7">
-        <v>1815119</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +5430,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>1532</v>
+        <v>142</v>
       </c>
       <c r="D44" s="7">
-        <v>1551659</v>
+        <v>136709</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="7">
+        <v>203</v>
+      </c>
+      <c r="I44" s="7">
+        <v>233955</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>345</v>
+      </c>
+      <c r="N44" s="7">
+        <v>370664</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H44" s="7">
-        <v>1831</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1885611</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M44" s="7">
-        <v>3363</v>
-      </c>
-      <c r="N44" s="7">
-        <v>3437270</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,63 +5481,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>71</v>
+      </c>
+      <c r="D46" s="7">
+        <v>74106</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="7">
+        <v>62</v>
+      </c>
+      <c r="I46" s="7">
+        <v>63049</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" s="7">
+        <v>133</v>
+      </c>
+      <c r="N46" s="7">
+        <v>137155</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>184</v>
+      </c>
+      <c r="D47" s="7">
+        <v>187038</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="7">
+        <v>110</v>
+      </c>
+      <c r="I47" s="7">
+        <v>113213</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" s="7">
+        <v>294</v>
+      </c>
+      <c r="N47" s="7">
+        <v>300251</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>509</v>
+      </c>
+      <c r="D48" s="7">
+        <v>516574</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="7">
+        <v>440</v>
+      </c>
+      <c r="I48" s="7">
+        <v>444465</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" s="7">
+        <v>949</v>
+      </c>
+      <c r="N48" s="7">
+        <v>961039</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>915</v>
+      </c>
+      <c r="D49" s="7">
+        <v>944294</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H49" s="7">
+        <v>852</v>
+      </c>
+      <c r="I49" s="7">
+        <v>870825</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1767</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1815119</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1532</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1551659</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1885611</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N50" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3211</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3273671</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3295</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3377162</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6506</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6650833</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>327</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5280,8 +5859,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB92D639-C04C-4C24-9FEE-49BE48CDE8E2}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE5EE23-CEB3-4115-96A7-7DCF7B777BEF}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5297,7 +5876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5407,10 +5986,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5419,13 +5998,13 @@
         <v>17280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5434,13 +6013,13 @@
         <v>31937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +6034,13 @@
         <v>24670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5470,13 +6049,13 @@
         <v>14638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5485,13 +6064,13 @@
         <v>39308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +6085,13 @@
         <v>83192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>63</v>
@@ -5521,13 +6100,13 @@
         <v>66443</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>145</v>
@@ -5536,13 +6115,13 @@
         <v>149634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +6136,13 @@
         <v>118578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>119</v>
@@ -5572,13 +6151,13 @@
         <v>120600</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
@@ -5587,13 +6166,13 @@
         <v>239178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +6187,13 @@
         <v>213050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -5623,13 +6202,13 @@
         <v>211268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>414</v>
@@ -5638,13 +6217,13 @@
         <v>424318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +6291,13 @@
         <v>25765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5727,13 +6306,13 @@
         <v>14978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5745,7 +6324,7 @@
         <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>211</v>
@@ -5763,13 +6342,13 @@
         <v>29379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5778,13 +6357,13 @@
         <v>32451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -5793,13 +6372,13 @@
         <v>61829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +6393,13 @@
         <v>106637</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -5829,13 +6408,13 @@
         <v>44843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5844,13 +6423,13 @@
         <v>151480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +6444,13 @@
         <v>182475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -5880,13 +6459,13 @@
         <v>140016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -5895,13 +6474,13 @@
         <v>322492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +6495,13 @@
         <v>341872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
@@ -5931,13 +6510,13 @@
         <v>376981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>685</v>
@@ -5946,13 +6525,13 @@
         <v>718854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6599,13 @@
         <v>16938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6035,13 +6614,13 @@
         <v>14708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6050,10 +6629,10 @@
         <v>31646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -6071,13 +6650,13 @@
         <v>24067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6086,13 +6665,13 @@
         <v>22193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6101,13 +6680,13 @@
         <v>46259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6701,13 @@
         <v>78625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -6137,13 +6716,13 @@
         <v>54374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -6152,13 +6731,13 @@
         <v>132999</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6752,13 @@
         <v>187543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -6188,13 +6767,13 @@
         <v>145724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
@@ -6203,10 +6782,10 @@
         <v>333267</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>223</v>
@@ -6224,13 +6803,13 @@
         <v>374689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>448</v>
@@ -6239,13 +6818,13 @@
         <v>472674</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -6254,13 +6833,13 @@
         <v>847363</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6907,13 @@
         <v>8241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6346,10 +6925,10 @@
         <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -6358,13 +6937,13 @@
         <v>17456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,10 +6958,10 @@
         <v>15338</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>167</v>
@@ -6394,13 +6973,13 @@
         <v>6450</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -6409,13 +6988,13 @@
         <v>21788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,10 +7009,10 @@
         <v>56770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>220</v>
@@ -6445,13 +7024,13 @@
         <v>41658</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -6460,13 +7039,13 @@
         <v>98428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +7060,13 @@
         <v>169638</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -6496,13 +7075,13 @@
         <v>123547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>257</v>
@@ -6511,13 +7090,13 @@
         <v>293185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +7111,13 @@
         <v>362577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>383</v>
@@ -6547,13 +7126,13 @@
         <v>434268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>707</v>
@@ -6562,13 +7141,13 @@
         <v>796845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,7 +7189,7 @@
         <v>1084</v>
       </c>
       <c r="N27" s="7">
-        <v>1227702</v>
+        <v>1227703</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6636,13 +7215,13 @@
         <v>3963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6651,13 +7230,13 @@
         <v>7113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6666,13 +7245,13 @@
         <v>11076</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +7266,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6702,13 +7281,13 @@
         <v>12808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6723,7 +7302,7 @@
         <v>110</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +7317,13 @@
         <v>31176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -6753,13 +7332,13 @@
         <v>35400</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -6768,13 +7347,13 @@
         <v>66576</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +7368,13 @@
         <v>76887</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="H31" s="7">
         <v>74</v>
@@ -6804,13 +7383,13 @@
         <v>82223</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -6819,13 +7398,13 @@
         <v>159110</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +7419,13 @@
         <v>307963</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="H32" s="7">
         <v>286</v>
@@ -6855,13 +7434,13 @@
         <v>310256</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="M32" s="7">
         <v>568</v>
@@ -6870,13 +7449,13 @@
         <v>618220</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,49 +7517,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>5179</v>
+        <v>4011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>561</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>4138</v>
+        <v>1962</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>452</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>9317</v>
+        <v>5973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>107</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>528</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7574,13 @@
         <v>5864</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -7010,13 +7589,13 @@
         <v>6924</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>530</v>
+        <v>294</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -7025,13 +7604,13 @@
         <v>12788</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,49 +7619,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D36" s="7">
-        <v>27537</v>
+        <v>17600</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="H36" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I36" s="7">
-        <v>29500</v>
+        <v>11757</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>451</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>293</v>
+        <v>574</v>
       </c>
       <c r="M36" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N36" s="7">
-        <v>57037</v>
+        <v>29357</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,49 +7670,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>76219</v>
+        <v>41331</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>543</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>544</v>
+        <v>38</v>
       </c>
       <c r="H37" s="7">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I37" s="7">
-        <v>91948</v>
+        <v>45576</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="M37" s="7">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="N37" s="7">
-        <v>168167</v>
+        <v>86907</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,49 +7721,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="D38" s="7">
-        <v>442788</v>
+        <v>239997</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="H38" s="7">
-        <v>567</v>
+        <v>279</v>
       </c>
       <c r="I38" s="7">
-        <v>606353</v>
+        <v>287778</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="M38" s="7">
-        <v>967</v>
+        <v>497</v>
       </c>
       <c r="N38" s="7">
-        <v>1049141</v>
+        <v>527775</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,10 +7772,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D39" s="7">
-        <v>557586</v>
+        <v>308804</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7208,10 +7787,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>691</v>
+        <v>344</v>
       </c>
       <c r="I39" s="7">
-        <v>738863</v>
+        <v>353996</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7223,10 +7802,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1193</v>
+        <v>625</v>
       </c>
       <c r="N39" s="7">
-        <v>1296449</v>
+        <v>662800</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7240,55 +7819,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>74743</v>
+        <v>1168</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>209</v>
+        <v>592</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>560</v>
+        <v>201</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="H40" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>67432</v>
+        <v>2176</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="M40" s="7">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>142175</v>
+        <v>3344</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>563</v>
+        <v>153</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>291</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,49 +7876,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>108755</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>201</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="H41" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>95464</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>567</v>
+        <v>201</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>251</v>
+        <v>596</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M41" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>204219</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>569</v>
+        <v>201</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,49 +7927,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>368</v>
+        <v>8</v>
       </c>
       <c r="D42" s="7">
-        <v>383938</v>
+        <v>9937</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>572</v>
+        <v>206</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="H42" s="7">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I42" s="7">
-        <v>272217</v>
+        <v>17744</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>463</v>
+        <v>168</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="M42" s="7">
-        <v>623</v>
+        <v>24</v>
       </c>
       <c r="N42" s="7">
-        <v>656155</v>
+        <v>27680</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>603</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,49 +7978,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>759</v>
+        <v>30</v>
       </c>
       <c r="D43" s="7">
-        <v>811341</v>
+        <v>34887</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="H43" s="7">
-        <v>646</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7">
-        <v>704059</v>
+        <v>46372</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="M43" s="7">
-        <v>1405</v>
+        <v>71</v>
       </c>
       <c r="N43" s="7">
-        <v>1515400</v>
+        <v>81259</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,49 +8029,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>1900</v>
+        <v>182</v>
       </c>
       <c r="D44" s="7">
-        <v>2042940</v>
+        <v>202790</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="H44" s="7">
-        <v>2244</v>
+        <v>288</v>
       </c>
       <c r="I44" s="7">
-        <v>2411801</v>
+        <v>318576</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="M44" s="7">
-        <v>4144</v>
+        <v>470</v>
       </c>
       <c r="N44" s="7">
-        <v>4454740</v>
+        <v>521366</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,63 +8080,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>221</v>
+      </c>
+      <c r="D45" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>347</v>
+      </c>
+      <c r="I45" s="7">
+        <v>384867</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>568</v>
+      </c>
+      <c r="N45" s="7">
+        <v>633649</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>73</v>
+      </c>
+      <c r="D46" s="7">
+        <v>74743</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H46" s="7">
+        <v>61</v>
+      </c>
+      <c r="I46" s="7">
+        <v>67432</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="M46" s="7">
+        <v>134</v>
+      </c>
+      <c r="N46" s="7">
+        <v>142175</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>104</v>
+      </c>
+      <c r="D47" s="7">
+        <v>108755</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H47" s="7">
+        <v>86</v>
+      </c>
+      <c r="I47" s="7">
+        <v>95464</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="M47" s="7">
+        <v>190</v>
+      </c>
+      <c r="N47" s="7">
+        <v>204219</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>368</v>
+      </c>
+      <c r="D48" s="7">
+        <v>383938</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H48" s="7">
+        <v>255</v>
+      </c>
+      <c r="I48" s="7">
+        <v>272217</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="M48" s="7">
+        <v>623</v>
+      </c>
+      <c r="N48" s="7">
+        <v>656155</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>759</v>
+      </c>
+      <c r="D49" s="7">
+        <v>811341</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H49" s="7">
+        <v>646</v>
+      </c>
+      <c r="I49" s="7">
+        <v>704059</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1405</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1515400</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2042940</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2244</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2411801</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N50" s="7">
+        <v>4454740</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3204</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3421717</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3292</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3550972</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6496</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6972689</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>327</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7570,8 +8458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D17264-8148-42AE-A5A2-DFD02D9F25EB}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D8FA-354F-411F-9594-52B42F6B4873}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7587,7 +8475,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7694,13 +8582,13 @@
         <v>22065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>599</v>
+        <v>664</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -7709,10 +8597,10 @@
         <v>23077</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>174</v>
@@ -7724,13 +8612,13 @@
         <v>45142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>605</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +8633,13 @@
         <v>21270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>606</v>
+        <v>671</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -7763,10 +8651,10 @@
         <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -7775,13 +8663,13 @@
         <v>51127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>610</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,10 +8687,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>612</v>
+        <v>677</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>83</v>
@@ -7811,13 +8699,13 @@
         <v>80561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>613</v>
+        <v>678</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>614</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>615</v>
+        <v>679</v>
       </c>
       <c r="M6" s="7">
         <v>160</v>
@@ -7826,13 +8714,13 @@
         <v>164685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>618</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +8735,13 @@
         <v>138678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>620</v>
+        <v>683</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -7862,13 +8750,13 @@
         <v>125315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>622</v>
+        <v>685</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>623</v>
+        <v>686</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>624</v>
+        <v>687</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -7877,13 +8765,13 @@
         <v>263993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>626</v>
+        <v>689</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>627</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +8786,13 @@
         <v>152338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>628</v>
+        <v>691</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -7913,13 +8801,13 @@
         <v>135949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>631</v>
+        <v>694</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>632</v>
+        <v>695</v>
       </c>
       <c r="M8" s="7">
         <v>280</v>
@@ -7928,13 +8816,13 @@
         <v>288287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>633</v>
+        <v>696</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>635</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8890,13 @@
         <v>17259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>637</v>
+        <v>699</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -8017,13 +8905,13 @@
         <v>12576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>638</v>
+        <v>700</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -8032,13 +8920,13 @@
         <v>29836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>642</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8941,13 @@
         <v>37940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>643</v>
+        <v>704</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>644</v>
+        <v>705</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>645</v>
+        <v>706</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -8068,13 +8956,13 @@
         <v>28336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>646</v>
+        <v>707</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>647</v>
+        <v>708</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>648</v>
+        <v>709</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -8083,13 +8971,13 @@
         <v>66277</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>649</v>
+        <v>710</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>651</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8992,13 @@
         <v>94634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>652</v>
+        <v>713</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>653</v>
+        <v>714</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>654</v>
+        <v>715</v>
       </c>
       <c r="H12" s="7">
         <v>101</v>
@@ -8119,13 +9007,13 @@
         <v>98761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>655</v>
+        <v>716</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>656</v>
+        <v>717</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -8134,13 +9022,13 @@
         <v>193395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>658</v>
+        <v>719</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +9043,13 @@
         <v>198028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -8170,13 +9058,13 @@
         <v>183228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>665</v>
+        <v>726</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>666</v>
+        <v>727</v>
       </c>
       <c r="M13" s="7">
         <v>383</v>
@@ -8185,13 +9073,13 @@
         <v>381255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>667</v>
+        <v>728</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>668</v>
+        <v>729</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +9094,13 @@
         <v>241652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>672</v>
+        <v>733</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -8221,13 +9109,13 @@
         <v>240643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>673</v>
+        <v>734</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>674</v>
+        <v>735</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>675</v>
+        <v>736</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -8236,13 +9124,13 @@
         <v>482295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>676</v>
+        <v>737</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>678</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +9198,13 @@
         <v>14795</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>680</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -8325,13 +9213,13 @@
         <v>13371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>681</v>
+        <v>741</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -8340,10 +9228,10 @@
         <v>28166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>529</v>
+        <v>744</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>684</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -8361,13 +9249,13 @@
         <v>34797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>686</v>
+        <v>746</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>687</v>
+        <v>747</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8379,10 +9267,10 @@
         <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>689</v>
+        <v>749</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -8391,13 +9279,13 @@
         <v>55979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>750</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>690</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +9300,13 @@
         <v>101074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>691</v>
+        <v>752</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>692</v>
+        <v>753</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>693</v>
+        <v>754</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -8427,13 +9315,13 @@
         <v>68632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>695</v>
+        <v>756</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>696</v>
+        <v>757</v>
       </c>
       <c r="M18" s="7">
         <v>161</v>
@@ -8442,13 +9330,13 @@
         <v>169706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>697</v>
+        <v>758</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>698</v>
+        <v>759</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>699</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +9351,13 @@
         <v>214743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>700</v>
+        <v>761</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>701</v>
+        <v>762</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -8478,13 +9366,13 @@
         <v>204946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>702</v>
+        <v>763</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -8493,13 +9381,13 @@
         <v>419688</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>704</v>
+        <v>765</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,13 +9402,13 @@
         <v>301865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>707</v>
+        <v>768</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>709</v>
+        <v>770</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -8529,13 +9417,13 @@
         <v>351626</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>712</v>
+        <v>773</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -8544,13 +9432,13 @@
         <v>653491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>714</v>
+        <v>775</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>715</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +9506,13 @@
         <v>20903</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>716</v>
+        <v>777</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8633,13 +9521,13 @@
         <v>12631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -8648,13 +9536,13 @@
         <v>33534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,10 +9560,10 @@
         <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -8687,7 +9575,7 @@
         <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>724</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>211</v>
@@ -8699,13 +9587,13 @@
         <v>29301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>725</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +9608,13 @@
         <v>93783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>726</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>727</v>
+        <v>786</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -8735,13 +9623,13 @@
         <v>60370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>729</v>
+        <v>788</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>730</v>
+        <v>789</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>731</v>
+        <v>790</v>
       </c>
       <c r="M24" s="7">
         <v>138</v>
@@ -8750,10 +9638,10 @@
         <v>154153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>732</v>
+        <v>791</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>733</v>
+        <v>792</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>85</v>
@@ -8771,13 +9659,13 @@
         <v>191225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>734</v>
+        <v>793</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>735</v>
+        <v>794</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8786,13 +9674,13 @@
         <v>197225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>737</v>
+        <v>796</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>738</v>
+        <v>797</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>739</v>
+        <v>798</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -8801,10 +9689,10 @@
         <v>388450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>740</v>
+        <v>799</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>741</v>
+        <v>800</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>133</v>
@@ -8822,13 +9710,13 @@
         <v>326580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>742</v>
+        <v>801</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>743</v>
+        <v>802</v>
       </c>
       <c r="H26" s="7">
         <v>338</v>
@@ -8837,13 +9725,13 @@
         <v>361995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>744</v>
+        <v>803</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>745</v>
+        <v>804</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>746</v>
+        <v>805</v>
       </c>
       <c r="M26" s="7">
         <v>632</v>
@@ -8852,13 +9740,13 @@
         <v>688574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>747</v>
+        <v>806</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>749</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +9814,13 @@
         <v>6837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>750</v>
+        <v>245</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -8941,13 +9829,13 @@
         <v>5240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -8956,13 +9844,13 @@
         <v>12077</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>754</v>
+        <v>812</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +9865,13 @@
         <v>13141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>755</v>
+        <v>813</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8992,13 +9880,13 @@
         <v>7031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>756</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -9007,13 +9895,13 @@
         <v>20172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +9916,13 @@
         <v>45940</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>761</v>
+        <v>602</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -9043,13 +9931,13 @@
         <v>46696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>265</v>
+        <v>819</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="M30" s="7">
         <v>81</v>
@@ -9058,13 +9946,13 @@
         <v>92636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,13 +9967,13 @@
         <v>126087</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>769</v>
+        <v>826</v>
       </c>
       <c r="H31" s="7">
         <v>108</v>
@@ -9094,13 +9982,13 @@
         <v>124400</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>275</v>
+        <v>828</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>771</v>
+        <v>829</v>
       </c>
       <c r="M31" s="7">
         <v>222</v>
@@ -9109,10 +9997,10 @@
         <v>250486</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>772</v>
+        <v>830</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>773</v>
+        <v>831</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>134</v>
@@ -9130,13 +10018,13 @@
         <v>284864</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>774</v>
+        <v>832</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>775</v>
+        <v>833</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="H32" s="7">
         <v>275</v>
@@ -9145,13 +10033,13 @@
         <v>313482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>777</v>
+        <v>835</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
       <c r="M32" s="7">
         <v>525</v>
@@ -9160,13 +10048,13 @@
         <v>598346</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>781</v>
+        <v>839</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>782</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,49 +10116,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>4651</v>
+        <v>2053</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>783</v>
+        <v>841</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>784</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>66</v>
+        <v>842</v>
       </c>
       <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2212</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="M34" s="7">
         <v>4</v>
       </c>
-      <c r="I34" s="7">
-        <v>4602</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="M34" s="7">
-        <v>9</v>
-      </c>
       <c r="N34" s="7">
-        <v>9253</v>
+        <v>4265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>786</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>527</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,49 +10167,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7869</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="H35" s="7">
         <v>7</v>
       </c>
-      <c r="D35" s="7">
-        <v>8736</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H35" s="7">
-        <v>11</v>
-      </c>
       <c r="I35" s="7">
-        <v>12925</v>
+        <v>7098</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>535</v>
+        <v>847</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>789</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>790</v>
+        <v>848</v>
       </c>
       <c r="M35" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N35" s="7">
-        <v>21661</v>
+        <v>14967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>63</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>791</v>
+        <v>849</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>792</v>
+        <v>850</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,49 +10218,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7">
+        <v>18814</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="H36" s="7">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7">
+        <v>25935</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="M36" s="7">
         <v>43</v>
       </c>
-      <c r="D36" s="7">
-        <v>40738</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="H36" s="7">
-        <v>40</v>
-      </c>
-      <c r="I36" s="7">
-        <v>46330</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="M36" s="7">
-        <v>83</v>
-      </c>
       <c r="N36" s="7">
-        <v>87068</v>
+        <v>44749</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>467</v>
+        <v>854</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>300</v>
+        <v>855</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>24</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,49 +10269,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D37" s="7">
-        <v>137999</v>
+        <v>78222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>798</v>
+        <v>432</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>799</v>
+        <v>857</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>800</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="I37" s="7">
-        <v>140980</v>
+        <v>67275</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="M37" s="7">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="N37" s="7">
-        <v>278979</v>
+        <v>145497</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,49 +10320,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="D38" s="7">
-        <v>397247</v>
+        <v>226312</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="H38" s="7">
-        <v>479</v>
+        <v>255</v>
       </c>
       <c r="I38" s="7">
-        <v>571003</v>
+        <v>273151</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="M38" s="7">
-        <v>902</v>
+        <v>476</v>
       </c>
       <c r="N38" s="7">
-        <v>968250</v>
+        <v>499463</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,10 +10371,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D39" s="7">
-        <v>589371</v>
+        <v>333271</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9498,10 +10386,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>653</v>
+        <v>352</v>
       </c>
       <c r="I39" s="7">
-        <v>775840</v>
+        <v>375671</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9513,10 +10401,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N39" s="7">
-        <v>1365211</v>
+        <v>708942</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9530,55 +10418,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>86511</v>
+        <v>2598</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>792</v>
+        <v>873</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>681</v>
+        <v>560</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>564</v>
+        <v>874</v>
       </c>
       <c r="H40" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>71497</v>
+        <v>2390</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>816</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>817</v>
+        <v>201</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="M40" s="7">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N40" s="7">
-        <v>158009</v>
+        <v>4988</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>718</v>
+        <v>877</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>752</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,49 +10475,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>129441</v>
+        <v>867</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>820</v>
+        <v>598</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>564</v>
+        <v>201</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>67</v>
+        <v>623</v>
       </c>
       <c r="H41" s="7">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I41" s="7">
-        <v>115076</v>
+        <v>5827</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>821</v>
+        <v>119</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>822</v>
+        <v>878</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>823</v>
+        <v>879</v>
       </c>
       <c r="M41" s="7">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>244517</v>
+        <v>6694</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>415</v>
+        <v>880</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,49 +10526,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>426</v>
+        <v>25</v>
       </c>
       <c r="D42" s="7">
-        <v>460293</v>
+        <v>21924</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>175</v>
+        <v>852</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>825</v>
+        <v>883</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="H42" s="7">
-        <v>386</v>
+        <v>15</v>
       </c>
       <c r="I42" s="7">
-        <v>401349</v>
+        <v>20395</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>827</v>
+        <v>535</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>828</v>
+        <v>885</v>
       </c>
       <c r="M42" s="7">
-        <v>812</v>
+        <v>40</v>
       </c>
       <c r="N42" s="7">
-        <v>861642</v>
+        <v>42319</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>545</v>
+        <v>886</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,49 +10577,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="D43" s="7">
-        <v>1006760</v>
+        <v>59777</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>888</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>831</v>
+        <v>889</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="H43" s="7">
-        <v>936</v>
+        <v>56</v>
       </c>
       <c r="I43" s="7">
-        <v>976093</v>
+        <v>73705</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>833</v>
+        <v>891</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>834</v>
+        <v>892</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="M43" s="7">
-        <v>1906</v>
+        <v>126</v>
       </c>
       <c r="N43" s="7">
-        <v>1982852</v>
+        <v>133482</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>836</v>
+        <v>37</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>44</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9740,49 +10628,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>1628</v>
+        <v>202</v>
       </c>
       <c r="D44" s="7">
-        <v>1704546</v>
+        <v>170935</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>839</v>
+        <v>897</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="H44" s="7">
-        <v>1830</v>
+        <v>224</v>
       </c>
       <c r="I44" s="7">
-        <v>1974697</v>
+        <v>297852</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>841</v>
+        <v>899</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>842</v>
+        <v>900</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>843</v>
+        <v>901</v>
       </c>
       <c r="M44" s="7">
-        <v>3458</v>
+        <v>426</v>
       </c>
       <c r="N44" s="7">
-        <v>3679244</v>
+        <v>468787</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>844</v>
+        <v>902</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>846</v>
+        <v>904</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9791,63 +10679,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>301</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256100</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>301</v>
+      </c>
+      <c r="I45" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>602</v>
+      </c>
+      <c r="N45" s="7">
+        <v>656269</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>80</v>
+      </c>
+      <c r="D46" s="7">
+        <v>86511</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H46" s="7">
+        <v>70</v>
+      </c>
+      <c r="I46" s="7">
+        <v>71497</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="M46" s="7">
+        <v>150</v>
+      </c>
+      <c r="N46" s="7">
+        <v>158009</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>121</v>
+      </c>
+      <c r="D47" s="7">
+        <v>129441</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="7">
+        <v>111</v>
+      </c>
+      <c r="I47" s="7">
+        <v>115076</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M47" s="7">
+        <v>232</v>
+      </c>
+      <c r="N47" s="7">
+        <v>244517</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>426</v>
+      </c>
+      <c r="D48" s="7">
+        <v>460293</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="H48" s="7">
+        <v>386</v>
+      </c>
+      <c r="I48" s="7">
+        <v>401349</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="M48" s="7">
+        <v>812</v>
+      </c>
+      <c r="N48" s="7">
+        <v>861642</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>970</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1006760</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="H49" s="7">
+        <v>936</v>
+      </c>
+      <c r="I49" s="7">
+        <v>976093</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1906</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1982852</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1628</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1704546</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1830</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1974697</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="M50" s="7">
+        <v>3458</v>
+      </c>
+      <c r="N50" s="7">
+        <v>3679244</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3225</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3387550</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3333</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3538712</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6558</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6926263</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>327</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
